--- a/爬虫结果.xlsx
+++ b/爬虫结果.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="840" uniqueCount="282">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="798" uniqueCount="278">
   <si>
     <t>品牌名</t>
   </si>
@@ -30,9 +30,6 @@
     <t>价格</t>
   </si>
   <si>
-    <t>限时优惠</t>
-  </si>
-  <si>
     <t>Arbeitspreis</t>
   </si>
   <si>
@@ -57,15 +54,15 @@
     <t>Preisfixierung:</t>
   </si>
   <si>
+    <t>Optional:</t>
+  </si>
+  <si>
+    <t>Garantierter Abschlag:</t>
+  </si>
+  <si>
     <t>Wechselbonus</t>
   </si>
   <si>
-    <t>Garantierter Abschlag:</t>
-  </si>
-  <si>
-    <t>Optional:</t>
-  </si>
-  <si>
     <t>Preisgarantie:</t>
   </si>
   <si>
@@ -88,9 +85,6 @@
   </si>
   <si>
     <t>77,53 €</t>
-  </si>
-  <si>
-    <t>Empty</t>
   </si>
   <si>
     <t>30,23 Ct./kWh</t>
@@ -379,6 +373,24 @@
     <t>112 € Den einmaligen Sofortbonus erhalten Sie, wenn Sie in den letzten 6 Monaten für die betreffende Verbrauchsstelle (den betreffenden Zähler) noch keinen Vertrag mit diesem Versorgungsunternehmen geschlossen haben. Der Sofortbonus wird ca. 60 Tage nach Lieferbeginn vom Versorgungsunternehmen ausbezahlt, sofern der Vertrag wirksam zustande gekommen ist und das Vertragsverhältnis zum Zeitpunkt der Bonus-Fälligkeit noch besteht.</t>
   </si>
   <si>
+    <t>MAXENERGY</t>
+  </si>
+  <si>
+    <t>Tarif MAX Ocean Strom 12</t>
+  </si>
+  <si>
+    <t>74,84 €</t>
+  </si>
+  <si>
+    <t>28,68 Ct./kWh</t>
+  </si>
+  <si>
+    <t>15,09 €/Monat</t>
+  </si>
+  <si>
+    <t>75 €/Monat</t>
+  </si>
+  <si>
     <t>Süwag</t>
   </si>
   <si>
@@ -401,24 +413,6 @@
   </si>
   <si>
     <t>150 € Der Kunde erhält einmalig einen Bonus, wenn er ab dem tatsächlichen Lieferbeginn für einen Zeitraum von mindestens 12 Liefermonaten ununterbrochen auf Grundlage dieses Vertrages beliefert worden ist. In der Regel wird der Bonus nach einem vollen Belieferungsjahr mit der nächsten Jahresrechnung verrechnet oder ausgezahlt. Der Wechselbonus wird auch dann ausbezahlt, wenn Sie in den letzten 6 Monaten vor der Beauftragung an der gleichen Verbrauchsstelle bereits von der Süwag Vertrieb AG &amp; Co. KG beliefert wurden.</t>
-  </si>
-  <si>
-    <t>MAXENERGY</t>
-  </si>
-  <si>
-    <t>Tarif MAX Ocean Strom 12</t>
-  </si>
-  <si>
-    <t>74,84 €</t>
-  </si>
-  <si>
-    <t>28,68 Ct./kWh</t>
-  </si>
-  <si>
-    <t>15,09 €/Monat</t>
-  </si>
-  <si>
-    <t>75 €/Monat</t>
   </si>
   <si>
     <t>Mainova</t>
@@ -584,21 +578,6 @@
     <t>73 €/Monat</t>
   </si>
   <si>
-    <t>62,49 €</t>
-  </si>
-  <si>
-    <t>35,72 Ct./kWh</t>
-  </si>
-  <si>
-    <t>13,62 €/Monat</t>
-  </si>
-  <si>
-    <t>15 % (158 €) Der Bonus wird prozentual zu den Gesamtkosten auf Basis des tatsächlichen Verbrauchs berechnet. Die Gesamtkosten setzen sich aus dem gültigen Arbeitspreis (brutto) und Grundpreis (brutto) zusammen. Bei dem von Ihnen angegebenen Jahresverbrauch beträgt der Bonus 158 €. Der Bonus wird spätestens nach 12 Monaten Belieferungszeit mit der dann folgenden Rechnung gutgeschrieben oder ausbezahlt. Der Bonus entfällt, wenn das Vertragsverhältnis vor Ablauf von 12 Belieferungsmonaten durch Sie oder aus von Ihnen zu vertretenden Gründen beendet wurde oder Sie in den letzten 6 Monaten vor der Beauftragung an der gleichen Verbrauchsstelle bereits von der Grünwelt Wärmestrom GmbH beliefert wurden. Hinweis: Der Bonus entfällt nicht, wenn das Vertragsverhältnis nach 12 Belieferungsmonaten endet.</t>
-  </si>
-  <si>
-    <t>148 € Den einmaligen Sofortbonus erhalten Sie, wenn Sie in den letzten 6 Monaten für die betreffende Verbrauchsstelle (den betreffenden Zähler) noch keinen Vertrag mit diesem Versorgungsunternehmen geschlossen haben. Der Sofortbonus wird ca. 60 Tage nach Lieferbeginn vom Versorgungsunternehmen ausbezahlt, sofern der Vertrag wirksam zustande gekommen ist und das Vertragsverhältnis zum Zeitpunkt der Bonus-Fälligkeit noch besteht.</t>
-  </si>
-  <si>
     <t>72,94 €</t>
   </si>
   <si>
@@ -656,6 +635,12 @@
     <t>130 € Den einmaligen Sofortbonus erhalten Sie, wenn Sie in den letzten 6 Monaten noch keinen Vertrag mit diesem Versorgungsunternehmen geschlossen haben. Der Sofortbonus wird ca. 60 Tage nach Lieferbeginn vom Versorgungsunternehmen ausbezahlt, sofern der Vertrag wirksam zustande gekommen ist und das Vertragsverhältnis zum Zeitpunkt der Bonus-Fälligkeit noch besteht.</t>
   </si>
   <si>
+    <t>60,69 €</t>
+  </si>
+  <si>
+    <t>147 € Der Bonus wird spätestens nach 12 Monaten Belieferungszeit mit der dann folgenden Rechnung gutgeschrieben oder ausbezahlt. Der Bonus entfällt, wenn das Vertragsverhältnis vor Ablauf von 12 Belieferungsmonaten durch Sie oder aus von Ihnen zu vertretenden Gründen beendet wurde oder Sie in den letzten 6 Monaten vor der Beauftragung an der gleichen Verbrauchsstelle bereits von der Vattenfall Europe Sales GmbH beliefert wurden. Hinweis: Der Bonus entfällt nicht, wenn das Vertragsverhältnis nach 12 Belieferungsmonaten endet.</t>
+  </si>
+  <si>
     <t>62,07 €</t>
   </si>
   <si>
@@ -674,12 +659,6 @@
     <t>132 € Den einmaligen Sofortbonus erhalten Sie, wenn Sie in den letzten 6 Monaten für die betreffende Verbrauchsstelle (den betreffenden Zähler) noch keinen Vertrag mit diesem Versorgungsunternehmen geschlossen haben. Der Sofortbonus wird ca. 5 Wochen nach Lieferbeginn vom Versorgungsunternehmen ausgezahlt, sofern der Vertrag wirksam zustande gekommen ist und das Vertragsverhältnis zum Zeitpunkt der Bonus-Fälligkeit noch besteht.</t>
   </si>
   <si>
-    <t>60,69 €</t>
-  </si>
-  <si>
-    <t>147 € Der Bonus wird spätestens nach 12 Monaten Belieferungszeit mit der dann folgenden Rechnung gutgeschrieben oder ausbezahlt. Der Bonus entfällt, wenn das Vertragsverhältnis vor Ablauf von 12 Belieferungsmonaten durch Sie oder aus von Ihnen zu vertretenden Gründen beendet wurde oder Sie in den letzten 6 Monaten vor der Beauftragung an der gleichen Verbrauchsstelle bereits von der Vattenfall Europe Sales GmbH beliefert wurden. Hinweis: Der Bonus entfällt nicht, wenn das Vertragsverhältnis nach 12 Belieferungsmonaten endet.</t>
-  </si>
-  <si>
     <t>Tarif eprimoStrom PrimaKlima Pur</t>
   </si>
   <si>
@@ -765,6 +744,15 @@
   </si>
   <si>
     <t>71 €/Monat</t>
+  </si>
+  <si>
+    <t>61,68 €</t>
+  </si>
+  <si>
+    <t>32,58 Ct./kWh</t>
+  </si>
+  <si>
+    <t>9,64 €/Monat</t>
   </si>
   <si>
     <t>Lechwerke</t>
@@ -911,7 +899,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -925,21 +913,20 @@
     <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.66015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.7578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.97265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.49609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.78125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.55859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.97265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.49609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.78125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.55859375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="14.0859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="21.21484375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="38.453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="14.0859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="38.453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="21.21484375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="255.0" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="255.0" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="255.0" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -1000,1248 +987,1185 @@
       <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="0">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="0">
+      <c r="E2" t="s" s="0">
         <v>23</v>
       </c>
-      <c r="E2" t="s" s="0">
+      <c r="F2" t="s" s="0">
         <v>24</v>
       </c>
-      <c r="F2" t="s" s="0">
+      <c r="G2" t="s" s="0">
         <v>25</v>
       </c>
-      <c r="G2" t="s" s="0">
-        <v>26</v>
-      </c>
       <c r="H2" t="s" s="0">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P2" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="0">
+      <c r="D3" t="s" s="0">
         <v>32</v>
       </c>
-      <c r="C3" t="s" s="0">
+      <c r="E3" t="s" s="0">
         <v>33</v>
       </c>
-      <c r="D3" t="s" s="0">
+      <c r="F3" t="s" s="0">
         <v>34</v>
       </c>
-      <c r="E3" t="s" s="0">
+      <c r="G3" t="s" s="0">
         <v>35</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s" s="0">
+      <c r="H3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K3" t="s" s="0">
         <v>36</v>
       </c>
-      <c r="H3" t="s" s="0">
+      <c r="L3" t="s" s="0">
         <v>37</v>
       </c>
-      <c r="I3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L3" t="s" s="0">
+      <c r="M3" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N3" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O3" t="s" s="0">
         <v>38</v>
       </c>
-      <c r="M3" t="s" s="0">
-        <v>39</v>
-      </c>
-      <c r="N3" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="O3" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P3" t="s" s="0">
-        <v>40</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B4" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B4" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C4" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="D4" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="E4" t="s" s="0">
+        <v>40</v>
+      </c>
+      <c r="F4" t="s" s="0">
         <v>41</v>
       </c>
-      <c r="E4" t="s" s="0">
+      <c r="G4" t="s" s="0">
         <v>42</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="H4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N4" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O4" t="s" s="0">
         <v>43</v>
       </c>
-      <c r="H4" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="I4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="O4" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P4" t="s" s="0">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>44</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>45</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>31</v>
+      </c>
+      <c r="D5" t="s" s="0">
         <v>46</v>
       </c>
-      <c r="B5" t="s" s="0">
+      <c r="E5" t="s" s="0">
         <v>47</v>
       </c>
-      <c r="C5" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>48</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>49</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="0">
         <v>50</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="J5" t="s" s="0">
         <v>51</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>52</v>
-      </c>
       <c r="K5" t="s" s="0">
-        <v>53</v>
+        <v>27</v>
       </c>
       <c r="L5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B6" t="s" s="0">
+      <c r="D6" t="s" s="0">
         <v>55</v>
       </c>
-      <c r="C6" t="s" s="0">
+      <c r="E6" t="s" s="0">
         <v>56</v>
       </c>
-      <c r="D6" t="s" s="0">
+      <c r="F6" t="s" s="0">
         <v>57</v>
       </c>
-      <c r="E6" t="s" s="0">
+      <c r="G6" t="s" s="0">
         <v>58</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="0">
+      <c r="H6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J6" t="s" s="0">
         <v>59</v>
       </c>
-      <c r="H6" t="s" s="0">
+      <c r="K6" t="s" s="0">
         <v>60</v>
       </c>
-      <c r="I6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s" s="0">
+      <c r="L6" t="s" s="0">
         <v>61</v>
       </c>
-      <c r="L6" t="s" s="0">
-        <v>62</v>
-      </c>
       <c r="M6" t="s" s="0">
-        <v>63</v>
+        <v>27</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B7" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C7" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D7" t="s" s="0">
         <v>64</v>
       </c>
-      <c r="B7" t="s" s="0">
+      <c r="E7" t="s" s="0">
         <v>65</v>
       </c>
-      <c r="C7" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D7" t="s" s="0">
+      <c r="F7" t="s" s="0">
         <v>66</v>
       </c>
-      <c r="E7" t="s" s="0">
+      <c r="G7" t="s" s="0">
         <v>67</v>
       </c>
-      <c r="F7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G7" t="s" s="0">
+      <c r="H7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I7" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J7" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K7" t="s" s="0">
         <v>68</v>
       </c>
-      <c r="H7" t="s" s="0">
+      <c r="L7" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="I7" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K7" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="L7" t="s" s="0">
+      <c r="M7" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N7" t="s" s="0">
         <v>70</v>
       </c>
-      <c r="M7" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="N7" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="O7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="0">
+        <v>71</v>
+      </c>
+      <c r="E8" t="s" s="0">
+        <v>72</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>59</v>
+      </c>
+      <c r="K8" t="s" s="0">
         <v>73</v>
       </c>
-      <c r="E8" t="s" s="0">
-        <v>74</v>
-      </c>
-      <c r="F8" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>68</v>
-      </c>
-      <c r="H8" t="s" s="0">
+      <c r="L8" t="s" s="0">
         <v>69</v>
       </c>
-      <c r="I8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>61</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>75</v>
-      </c>
       <c r="M8" t="s" s="0">
-        <v>71</v>
+        <v>26</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C9" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s" s="0">
+        <v>75</v>
+      </c>
+      <c r="E9" t="s" s="0">
         <v>76</v>
       </c>
-      <c r="B9" t="s" s="0">
-        <v>65</v>
-      </c>
-      <c r="C9" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D9" t="s" s="0">
+      <c r="F9" t="s" s="0">
         <v>77</v>
       </c>
-      <c r="E9" t="s" s="0">
+      <c r="G9" t="s" s="0">
         <v>78</v>
       </c>
-      <c r="F9" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G9" t="s" s="0">
+      <c r="H9" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I9" t="s" s="0">
         <v>79</v>
       </c>
-      <c r="H9" t="s" s="0">
+      <c r="J9" t="s" s="0">
         <v>80</v>
       </c>
-      <c r="I9" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s" s="0">
+      <c r="K9" t="s" s="0">
         <v>81</v>
       </c>
-      <c r="K9" t="s" s="0">
+      <c r="L9" t="s" s="0">
         <v>82</v>
       </c>
-      <c r="L9" t="s" s="0">
-        <v>83</v>
-      </c>
       <c r="M9" t="s" s="0">
-        <v>84</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
+        <v>83</v>
+      </c>
+      <c r="B10" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C10" t="s" s="0">
         <v>85</v>
       </c>
-      <c r="B10" t="s" s="0">
+      <c r="D10" t="s" s="0">
         <v>86</v>
       </c>
-      <c r="C10" t="s" s="0">
+      <c r="E10" t="s" s="0">
         <v>87</v>
       </c>
-      <c r="D10" t="s" s="0">
+      <c r="F10" t="s" s="0">
         <v>88</v>
       </c>
-      <c r="E10" t="s" s="0">
+      <c r="G10" t="s" s="0">
         <v>89</v>
       </c>
-      <c r="F10" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G10" t="s" s="0">
+      <c r="H10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I10" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J10" t="s" s="0">
         <v>90</v>
       </c>
-      <c r="H10" t="s" s="0">
+      <c r="K10" t="s" s="0">
         <v>91</v>
       </c>
-      <c r="I10" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K10" t="s" s="0">
-        <v>92</v>
-      </c>
       <c r="L10" t="s" s="0">
-        <v>93</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>92</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>84</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>93</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>94</v>
       </c>
-      <c r="B11" t="s" s="0">
-        <v>86</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>95</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="G11" t="s" s="0">
         <v>96</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s" s="0">
+      <c r="H11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J11" t="s" s="0">
         <v>97</v>
       </c>
-      <c r="H11" t="s" s="0">
+      <c r="K11" t="s" s="0">
         <v>98</v>
       </c>
-      <c r="I11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K11" t="s" s="0">
+      <c r="L11" t="s" s="0">
         <v>99</v>
       </c>
-      <c r="L11" t="s" s="0">
-        <v>100</v>
-      </c>
       <c r="M11" t="s" s="0">
-        <v>101</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B12" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D12" t="s" s="0">
         <v>102</v>
       </c>
-      <c r="B12" t="s" s="0">
+      <c r="E12" t="s" s="0">
         <v>103</v>
       </c>
-      <c r="C12" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D12" t="s" s="0">
+      <c r="F12" t="s" s="0">
         <v>104</v>
       </c>
-      <c r="E12" t="s" s="0">
+      <c r="G12" t="s" s="0">
         <v>105</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G12" t="s" s="0">
+      <c r="H12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I12" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J12" t="s" s="0">
         <v>106</v>
       </c>
-      <c r="H12" t="s" s="0">
+      <c r="K12" t="s" s="0">
         <v>107</v>
       </c>
-      <c r="I12" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J12" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K12" t="s" s="0">
+      <c r="L12" t="s" s="0">
         <v>108</v>
       </c>
-      <c r="L12" t="s" s="0">
-        <v>109</v>
-      </c>
       <c r="M12" t="s" s="0">
-        <v>110</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S12" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D13" t="s" s="0">
         <v>111</v>
       </c>
-      <c r="B13" t="s" s="0">
+      <c r="E13" t="s" s="0">
         <v>112</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D13" t="s" s="0">
+      <c r="F13" t="s" s="0">
         <v>113</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="G13" t="s" s="0">
         <v>114</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s" s="0">
+      <c r="H13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s" s="0">
         <v>115</v>
       </c>
-      <c r="H13" t="s" s="0">
+      <c r="J13" t="s" s="0">
         <v>116</v>
       </c>
-      <c r="I13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s" s="0">
+      <c r="K13" t="s" s="0">
         <v>117</v>
       </c>
-      <c r="K13" t="s" s="0">
+      <c r="L13" t="s" s="0">
         <v>118</v>
       </c>
-      <c r="L13" t="s" s="0">
-        <v>119</v>
-      </c>
       <c r="M13" t="s" s="0">
-        <v>120</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="B14" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>120</v>
+      </c>
+      <c r="E14" t="s" s="0">
         <v>121</v>
       </c>
-      <c r="B14" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C14" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D14" t="s" s="0">
+      <c r="F14" t="s" s="0">
         <v>122</v>
       </c>
-      <c r="E14" t="s" s="0">
+      <c r="G14" t="s" s="0">
         <v>123</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s" s="0">
+      <c r="H14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s" s="0">
         <v>124</v>
       </c>
-      <c r="H14" t="s" s="0">
-        <v>125</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>126</v>
-      </c>
-      <c r="N14" t="s" s="0">
-        <v>127</v>
-      </c>
-      <c r="O14" t="s" s="0">
-        <v>128</v>
-      </c>
       <c r="P14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
+        <v>125</v>
+      </c>
+      <c r="B15" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>126</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>127</v>
+      </c>
+      <c r="F15" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G15" t="s" s="0">
         <v>129</v>
       </c>
-      <c r="B15" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C15" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D15" t="s" s="0">
+      <c r="H15" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J15" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L15" t="s" s="0">
         <v>130</v>
       </c>
-      <c r="E15" t="s" s="0">
+      <c r="M15" t="s" s="0">
         <v>131</v>
       </c>
-      <c r="F15" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G15" t="s" s="0">
+      <c r="N15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O15" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P15" t="s" s="0">
         <v>132</v>
       </c>
-      <c r="H15" t="s" s="0">
-        <v>133</v>
-      </c>
-      <c r="I15" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N15" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="O15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P15" t="s" s="0">
-        <v>134</v>
-      </c>
       <c r="Q15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>133</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>110</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>134</v>
+      </c>
+      <c r="E16" t="s" s="0">
         <v>135</v>
       </c>
-      <c r="B16" t="s" s="0">
-        <v>112</v>
-      </c>
-      <c r="C16" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="F16" t="s" s="0">
         <v>136</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="G16" t="s" s="0">
         <v>137</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s" s="0">
+      <c r="H16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s" s="0">
         <v>138</v>
       </c>
-      <c r="H16" t="s" s="0">
+      <c r="K16" t="s" s="0">
         <v>139</v>
       </c>
-      <c r="I16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s" s="0">
+      <c r="L16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="S16" t="s" s="0">
         <v>140</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>141</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="O16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="S16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T16" t="s" s="0">
-        <v>142</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B17" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C17" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D17" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B17" t="s" s="0">
+      <c r="E17" t="s" s="0">
         <v>144</v>
       </c>
-      <c r="C17" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D17" t="s" s="0">
+      <c r="F17" t="s" s="0">
         <v>145</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="G17" t="s" s="0">
         <v>146</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s" s="0">
+      <c r="H17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="K17" t="s" s="0">
         <v>147</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="L17" t="s" s="0">
         <v>148</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>118</v>
-      </c>
-      <c r="L17" t="s" s="0">
+      <c r="M17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="R17" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="M17" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="N17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="S17" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="T17" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>150</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>151</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>152</v>
       </c>
-      <c r="B18" t="s" s="0">
+      <c r="E18" t="s" s="0">
         <v>153</v>
       </c>
-      <c r="C18" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s" s="0">
+      <c r="F18" t="s" s="0">
         <v>154</v>
       </c>
-      <c r="E18" t="s" s="0">
+      <c r="G18" t="s" s="0">
         <v>155</v>
       </c>
-      <c r="F18" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G18" t="s" s="0">
+      <c r="H18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J18" t="s" s="0">
         <v>156</v>
       </c>
-      <c r="H18" t="s" s="0">
+      <c r="K18" t="s" s="0">
         <v>157</v>
       </c>
-      <c r="I18" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>158</v>
-      </c>
       <c r="L18" t="s" s="0">
-        <v>159</v>
+        <v>27</v>
       </c>
       <c r="M18" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N18" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="D19" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="C19" t="s" s="0">
+      <c r="E19" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="D19" t="s" s="0">
+      <c r="F19" t="s" s="0">
         <v>163</v>
       </c>
-      <c r="E19" t="s" s="0">
+      <c r="G19" t="s" s="0">
         <v>164</v>
       </c>
-      <c r="F19" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G19" t="s" s="0">
+      <c r="H19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I19" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K19" t="s" s="0">
         <v>165</v>
       </c>
-      <c r="H19" t="s" s="0">
+      <c r="L19" t="s" s="0">
         <v>166</v>
       </c>
-      <c r="I19" t="s" s="0">
+      <c r="M19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N19" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O19" t="s" s="0">
         <v>28</v>
       </c>
-      <c r="J19" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L19" t="s" s="0">
-        <v>167</v>
-      </c>
-      <c r="M19" t="s" s="0">
-        <v>168</v>
-      </c>
-      <c r="N19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O19" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P19" t="s" s="0">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="D20" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="C20" t="s" s="0">
+      <c r="E20" t="s" s="0">
         <v>171</v>
       </c>
-      <c r="D20" t="s" s="0">
+      <c r="F20" t="s" s="0">
         <v>172</v>
       </c>
-      <c r="E20" t="s" s="0">
+      <c r="G20" t="s" s="0">
         <v>173</v>
       </c>
-      <c r="F20" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G20" t="s" s="0">
+      <c r="H20" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I20" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J20" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="K20" t="s" s="0">
         <v>174</v>
       </c>
-      <c r="H20" t="s" s="0">
+      <c r="L20" t="s" s="0">
         <v>175</v>
       </c>
-      <c r="I20" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K20" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L20" t="s" s="0">
-        <v>176</v>
-      </c>
       <c r="M20" t="s" s="0">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B21" t="s" s="0">
+      <c r="E21" t="s" s="0">
         <v>179</v>
       </c>
-      <c r="C21" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s" s="0">
+      <c r="F21" t="s" s="0">
         <v>180</v>
       </c>
-      <c r="E21" t="s" s="0">
+      <c r="G21" t="s" s="0">
         <v>181</v>
       </c>
-      <c r="F21" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G21" t="s" s="0">
+      <c r="H21" t="s" s="0">
         <v>182</v>
       </c>
-      <c r="H21" t="s" s="0">
-        <v>183</v>
-      </c>
       <c r="I21" t="s" s="0">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -2251,7 +2175,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:T21"/>
+  <dimension ref="A1:S21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1.0" state="frozen" topLeftCell="A2" activePane="bottomLeft"/>
@@ -2265,21 +2189,20 @@
     <col min="3" max="3" width="13.453125" customWidth="true" bestFit="true"/>
     <col min="4" max="4" width="49.90234375" customWidth="true" bestFit="true"/>
     <col min="5" max="5" width="7.66015625" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="6.7578125" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="13.97265625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="14.49609375" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="15.78125" customWidth="true" bestFit="true"/>
-    <col min="10" max="10" width="18.55859375" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="13.97265625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.49609375" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="15.78125" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="18.55859375" customWidth="true" bestFit="true"/>
+    <col min="10" max="10" width="20.78125" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="255.0" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="13" max="13" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="14" max="14" width="14.0859375" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="14.125" customWidth="true" bestFit="true"/>
-    <col min="16" max="16" width="21.21484375" customWidth="true" bestFit="true"/>
-    <col min="17" max="17" width="38.453125" customWidth="true" bestFit="true"/>
-    <col min="18" max="18" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="13" max="13" width="14.0859375" customWidth="true" bestFit="true"/>
+    <col min="14" max="14" width="38.453125" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="21.21484375" customWidth="true" bestFit="true"/>
+    <col min="16" max="16" width="14.125" customWidth="true" bestFit="true"/>
+    <col min="17" max="17" width="13.390625" customWidth="true" bestFit="true"/>
+    <col min="18" max="18" width="255.0" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="255.0" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="20.6953125" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -2340,515 +2263,488 @@
       <c r="S1" t="s" s="0">
         <v>18</v>
       </c>
-      <c r="T1" t="s" s="0">
-        <v>19</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="0">
+        <v>19</v>
+      </c>
+      <c r="B2" t="s" s="0">
         <v>20</v>
       </c>
-      <c r="B2" t="s" s="0">
+      <c r="C2" t="s" s="0">
         <v>21</v>
       </c>
-      <c r="C2" t="s" s="0">
+      <c r="D2" t="s" s="0">
         <v>22</v>
       </c>
-      <c r="D2" t="s" s="0">
-        <v>23</v>
-      </c>
       <c r="E2" t="s" s="0">
+        <v>183</v>
+      </c>
+      <c r="F2" t="s" s="0">
+        <v>184</v>
+      </c>
+      <c r="G2" t="s" s="0">
         <v>185</v>
       </c>
-      <c r="F2" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G2" t="s" s="0">
+      <c r="H2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I2" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N2" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O2" t="s" s="0">
         <v>186</v>
       </c>
-      <c r="H2" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="I2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J2" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="L2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="M2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="N2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O2" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P2" t="s" s="0">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="Q2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S2" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T2" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="B3" t="s" s="0">
+        <v>30</v>
+      </c>
+      <c r="C3" t="s" s="0">
         <v>31</v>
       </c>
-      <c r="B3" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="C3" t="s" s="0">
-        <v>33</v>
-      </c>
       <c r="D3" t="s" s="0">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="E3" t="s" s="0">
+        <v>187</v>
+      </c>
+      <c r="F3" t="s" s="0">
+        <v>188</v>
+      </c>
+      <c r="G3" t="s" s="0">
         <v>189</v>
       </c>
-      <c r="F3" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G3" t="s" s="0">
-        <v>190</v>
-      </c>
       <c r="H3" t="s" s="0">
-        <v>191</v>
+        <v>26</v>
       </c>
       <c r="I3" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L3" t="s" s="0">
-        <v>192</v>
+        <v>27</v>
       </c>
       <c r="M3" t="s" s="0">
-        <v>193</v>
+        <v>26</v>
       </c>
       <c r="N3" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O3" t="s" s="0">
-        <v>29</v>
+        <v>186</v>
       </c>
       <c r="P3" t="s" s="0">
-        <v>140</v>
+        <v>27</v>
       </c>
       <c r="Q3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S3" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T3" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>31</v>
+        <v>190</v>
       </c>
       <c r="B4" t="s" s="0">
-        <v>32</v>
+        <v>53</v>
       </c>
       <c r="C4" t="s" s="0">
-        <v>33</v>
+        <v>54</v>
       </c>
       <c r="D4" t="s" s="0">
-        <v>41</v>
+        <v>191</v>
       </c>
       <c r="E4" t="s" s="0">
+        <v>192</v>
+      </c>
+      <c r="F4" t="s" s="0">
+        <v>193</v>
+      </c>
+      <c r="G4" t="s" s="0">
         <v>194</v>
       </c>
-      <c r="F4" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G4" t="s" s="0">
+      <c r="H4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J4" t="s" s="0">
         <v>195</v>
       </c>
-      <c r="H4" t="s" s="0">
+      <c r="K4" t="s" s="0">
         <v>196</v>
       </c>
-      <c r="I4" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K4" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="L4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N4" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P4" t="s" s="0">
-        <v>188</v>
+        <v>27</v>
       </c>
       <c r="Q4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S4" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T4" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
+        <v>52</v>
+      </c>
+      <c r="B5" t="s" s="0">
+        <v>53</v>
+      </c>
+      <c r="C5" t="s" s="0">
+        <v>54</v>
+      </c>
+      <c r="D5" t="s" s="0">
+        <v>55</v>
+      </c>
+      <c r="E5" t="s" s="0">
         <v>197</v>
       </c>
-      <c r="B5" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C5" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D5" t="s" s="0">
+      <c r="F5" t="s" s="0">
         <v>198</v>
       </c>
-      <c r="E5" t="s" s="0">
+      <c r="G5" t="s" s="0">
         <v>199</v>
       </c>
-      <c r="F5" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G5" t="s" s="0">
+      <c r="H5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I5" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J5" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="K5" t="s" s="0">
         <v>200</v>
       </c>
-      <c r="H5" t="s" s="0">
+      <c r="L5" t="s" s="0">
         <v>201</v>
       </c>
-      <c r="I5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J5" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K5" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="L5" t="s" s="0">
-        <v>203</v>
-      </c>
       <c r="M5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S5" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T5" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="B6" t="s" s="0">
+        <v>63</v>
+      </c>
+      <c r="C6" t="s" s="0">
         <v>54</v>
       </c>
-      <c r="B6" t="s" s="0">
-        <v>55</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>56</v>
-      </c>
       <c r="D6" t="s" s="0">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="E6" t="s" s="0">
+        <v>202</v>
+      </c>
+      <c r="F6" t="s" s="0">
+        <v>128</v>
+      </c>
+      <c r="G6" t="s" s="0">
+        <v>203</v>
+      </c>
+      <c r="H6" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I6" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s" s="0">
+        <v>106</v>
+      </c>
+      <c r="K6" t="s" s="0">
         <v>204</v>
       </c>
-      <c r="F6" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G6" t="s" s="0">
+      <c r="L6" t="s" s="0">
         <v>205</v>
       </c>
-      <c r="H6" t="s" s="0">
-        <v>206</v>
-      </c>
-      <c r="I6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J6" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K6" t="s" s="0">
-        <v>108</v>
-      </c>
-      <c r="L6" t="s" s="0">
-        <v>207</v>
-      </c>
       <c r="M6" t="s" s="0">
-        <v>208</v>
+        <v>26</v>
       </c>
       <c r="N6" t="s" s="0">
-        <v>29</v>
+        <v>70</v>
       </c>
       <c r="O6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S6" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s" s="0">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C7" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s" s="0">
-        <v>66</v>
+        <v>71</v>
       </c>
       <c r="E7" t="s" s="0">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="F7" t="s" s="0">
-        <v>25</v>
+        <v>128</v>
       </c>
       <c r="G7" t="s" s="0">
-        <v>124</v>
+        <v>203</v>
       </c>
       <c r="H7" t="s" s="0">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I7" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J7" t="s" s="0">
-        <v>29</v>
+        <v>106</v>
       </c>
       <c r="K7" t="s" s="0">
-        <v>108</v>
+        <v>207</v>
       </c>
       <c r="L7" t="s" s="0">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="M7" t="s" s="0">
-        <v>212</v>
+        <v>26</v>
       </c>
       <c r="N7" t="s" s="0">
-        <v>28</v>
+        <v>70</v>
       </c>
       <c r="O7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q7" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="R7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S7" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T7" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s" s="0">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B8" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C8" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D8" t="s" s="0">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" t="s" s="0">
+        <v>208</v>
+      </c>
+      <c r="F8" t="s" s="0">
+        <v>209</v>
+      </c>
+      <c r="G8" t="s" s="0">
+        <v>210</v>
+      </c>
+      <c r="H8" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I8" t="s" s="0">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s" s="0">
+        <v>211</v>
+      </c>
+      <c r="K8" t="s" s="0">
+        <v>212</v>
+      </c>
+      <c r="L8" t="s" s="0">
         <v>213</v>
       </c>
-      <c r="F8" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G8" t="s" s="0">
-        <v>214</v>
-      </c>
-      <c r="H8" t="s" s="0">
-        <v>215</v>
-      </c>
-      <c r="I8" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J8" t="s" s="0">
-        <v>81</v>
-      </c>
-      <c r="K8" t="s" s="0">
-        <v>216</v>
-      </c>
-      <c r="L8" t="s" s="0">
-        <v>217</v>
-      </c>
       <c r="M8" t="s" s="0">
-        <v>218</v>
+        <v>27</v>
       </c>
       <c r="N8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S8" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T8" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s" s="0">
-        <v>64</v>
+        <v>74</v>
       </c>
       <c r="B9" t="s" s="0">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D9" t="s" s="0">
-        <v>73</v>
+        <v>214</v>
       </c>
       <c r="E9" t="s" s="0">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="F9" t="s" s="0">
-        <v>25</v>
+        <v>216</v>
       </c>
       <c r="G9" t="s" s="0">
-        <v>124</v>
+        <v>217</v>
       </c>
       <c r="H9" t="s" s="0">
-        <v>210</v>
+        <v>26</v>
       </c>
       <c r="I9" t="s" s="0">
-        <v>28</v>
+        <v>79</v>
       </c>
       <c r="J9" t="s" s="0">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="K9" t="s" s="0">
-        <v>108</v>
+        <v>27</v>
       </c>
       <c r="L9" t="s" s="0">
-        <v>220</v>
+        <v>27</v>
       </c>
       <c r="M9" t="s" s="0">
-        <v>212</v>
+        <v>27</v>
       </c>
       <c r="N9" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q9" t="s" s="0">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="R9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S9" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T9" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s" s="0">
-        <v>76</v>
+        <v>219</v>
       </c>
       <c r="B10" t="s" s="0">
-        <v>65</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>221</v>
@@ -2857,731 +2753,695 @@
         <v>222</v>
       </c>
       <c r="F10" t="s" s="0">
-        <v>25</v>
+        <v>223</v>
       </c>
       <c r="G10" t="s" s="0">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H10" t="s" s="0">
-        <v>224</v>
+        <v>26</v>
       </c>
       <c r="I10" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J10" t="s" s="0">
         <v>28</v>
-      </c>
-      <c r="J10" t="s" s="0">
-        <v>81</v>
       </c>
       <c r="K10" t="s" s="0">
         <v>225</v>
       </c>
       <c r="L10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S10" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T10" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s" s="0">
+        <v>100</v>
+      </c>
+      <c r="B11" t="s" s="0">
+        <v>101</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>102</v>
+      </c>
+      <c r="E11" t="s" s="0">
         <v>226</v>
       </c>
-      <c r="B11" t="s" s="0">
+      <c r="F11" t="s" s="0">
         <v>227</v>
       </c>
-      <c r="C11" t="s" s="0">
-        <v>56</v>
-      </c>
-      <c r="D11" t="s" s="0">
+      <c r="G11" t="s" s="0">
         <v>228</v>
       </c>
-      <c r="E11" t="s" s="0">
+      <c r="H11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I11" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="J11" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="K11" t="s" s="0">
         <v>229</v>
       </c>
-      <c r="F11" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G11" t="s" s="0">
+      <c r="L11" t="s" s="0">
         <v>230</v>
       </c>
-      <c r="H11" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="I11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J11" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K11" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L11" t="s" s="0">
-        <v>232</v>
-      </c>
       <c r="M11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T11" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s" s="0">
-        <v>102</v>
+        <v>219</v>
       </c>
       <c r="B12" t="s" s="0">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" t="s" s="0">
-        <v>104</v>
+        <v>231</v>
       </c>
       <c r="E12" t="s" s="0">
+        <v>232</v>
+      </c>
+      <c r="F12" t="s" s="0">
         <v>233</v>
       </c>
-      <c r="F12" t="s" s="0">
-        <v>25</v>
-      </c>
       <c r="G12" t="s" s="0">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H12" t="s" s="0">
-        <v>235</v>
+        <v>26</v>
       </c>
       <c r="I12" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J12" t="s" s="0">
         <v>28</v>
       </c>
       <c r="K12" t="s" s="0">
-        <v>118</v>
+        <v>234</v>
       </c>
       <c r="L12" t="s" s="0">
-        <v>236</v>
+        <v>27</v>
       </c>
       <c r="M12" t="s" s="0">
-        <v>237</v>
+        <v>27</v>
       </c>
       <c r="N12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S12" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T12" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s" s="0">
-        <v>226</v>
+        <v>109</v>
       </c>
       <c r="B13" t="s" s="0">
-        <v>103</v>
+        <v>110</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D13" t="s" s="0">
+        <v>111</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>235</v>
+      </c>
+      <c r="F13" t="s" s="0">
+        <v>236</v>
+      </c>
+      <c r="G13" t="s" s="0">
+        <v>237</v>
+      </c>
+      <c r="H13" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I13" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="J13" t="s" s="0">
+        <v>97</v>
+      </c>
+      <c r="K13" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="E13" t="s" s="0">
+      <c r="L13" t="s" s="0">
         <v>239</v>
       </c>
-      <c r="F13" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G13" t="s" s="0">
-        <v>240</v>
-      </c>
-      <c r="H13" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="I13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J13" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="K13" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="L13" t="s" s="0">
-        <v>241</v>
-      </c>
       <c r="M13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="N13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T13" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s" s="0">
-        <v>111</v>
+        <v>119</v>
       </c>
       <c r="B14" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C14" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D14" t="s" s="0">
-        <v>113</v>
+        <v>120</v>
       </c>
       <c r="E14" t="s" s="0">
+        <v>240</v>
+      </c>
+      <c r="F14" t="s" s="0">
+        <v>241</v>
+      </c>
+      <c r="G14" t="s" s="0">
+        <v>224</v>
+      </c>
+      <c r="H14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="K14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="L14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="M14" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="N14" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O14" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="F14" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G14" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="H14" t="s" s="0">
-        <v>244</v>
-      </c>
-      <c r="I14" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J14" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="K14" t="s" s="0">
-        <v>99</v>
-      </c>
-      <c r="L14" t="s" s="0">
-        <v>245</v>
-      </c>
-      <c r="M14" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="N14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O14" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="P14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T14" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s" s="0">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="B15" t="s" s="0">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="C15" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D15" t="s" s="0">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E15" t="s" s="0">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F15" t="s" s="0">
-        <v>25</v>
+        <v>244</v>
       </c>
       <c r="G15" t="s" s="0">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="H15" t="s" s="0">
-        <v>231</v>
+        <v>26</v>
       </c>
       <c r="I15" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J15" t="s" s="0">
-        <v>29</v>
+        <v>211</v>
       </c>
       <c r="K15" t="s" s="0">
-        <v>29</v>
+        <v>139</v>
       </c>
       <c r="L15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M15" t="s" s="0">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="N15" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P15" t="s" s="0">
-        <v>249</v>
+        <v>27</v>
       </c>
       <c r="Q15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R15" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T15" t="s" s="0">
-        <v>29</v>
+        <v>140</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s" s="0">
+        <v>246</v>
+      </c>
+      <c r="B16" t="s" s="0">
+        <v>247</v>
+      </c>
+      <c r="C16" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D16" t="s" s="0">
+        <v>248</v>
+      </c>
+      <c r="E16" t="s" s="0">
+        <v>249</v>
+      </c>
+      <c r="F16" t="s" s="0">
         <v>250</v>
       </c>
-      <c r="B16" t="s" s="0">
+      <c r="G16" t="s" s="0">
         <v>251</v>
       </c>
-      <c r="C16" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D16" t="s" s="0">
+      <c r="H16" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J16" t="s" s="0">
+        <v>156</v>
+      </c>
+      <c r="K16" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="E16" t="s" s="0">
+      <c r="L16" t="s" s="0">
         <v>253</v>
       </c>
-      <c r="F16" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G16" t="s" s="0">
+      <c r="M16" t="s" s="0">
+        <v>115</v>
+      </c>
+      <c r="N16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Q16" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="R16" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="H16" t="s" s="0">
-        <v>255</v>
-      </c>
-      <c r="I16" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K16" t="s" s="0">
-        <v>158</v>
-      </c>
-      <c r="L16" t="s" s="0">
-        <v>256</v>
-      </c>
-      <c r="M16" t="s" s="0">
-        <v>257</v>
-      </c>
-      <c r="N16" t="s" s="0">
-        <v>117</v>
-      </c>
-      <c r="O16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q16" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="R16" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="S16" t="s" s="0">
-        <v>258</v>
-      </c>
-      <c r="T16" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s" s="0">
-        <v>121</v>
+        <v>125</v>
       </c>
       <c r="B17" t="s" s="0">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D17" t="s" s="0">
+        <v>255</v>
+      </c>
+      <c r="E17" t="s" s="0">
+        <v>256</v>
+      </c>
+      <c r="F17" t="s" s="0">
+        <v>257</v>
+      </c>
+      <c r="G17" t="s" s="0">
+        <v>258</v>
+      </c>
+      <c r="H17" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="I17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="J17" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="K17" t="s" s="0">
         <v>259</v>
       </c>
-      <c r="E17" t="s" s="0">
+      <c r="L17" t="s" s="0">
         <v>260</v>
       </c>
-      <c r="F17" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="G17" t="s" s="0">
+      <c r="M17" t="s" s="0">
         <v>261</v>
       </c>
-      <c r="H17" t="s" s="0">
+      <c r="N17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Q17" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="R17" t="s" s="0">
         <v>262</v>
       </c>
-      <c r="I17" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="J17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="K17" t="s" s="0">
-        <v>202</v>
-      </c>
-      <c r="L17" t="s" s="0">
-        <v>263</v>
-      </c>
-      <c r="M17" t="s" s="0">
-        <v>264</v>
-      </c>
-      <c r="N17" t="s" s="0">
-        <v>265</v>
-      </c>
-      <c r="O17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q17" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="R17" t="s" s="0">
-        <v>29</v>
-      </c>
       <c r="S17" t="s" s="0">
-        <v>266</v>
-      </c>
-      <c r="T17" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s" s="0">
+        <v>141</v>
+      </c>
+      <c r="B18" t="s" s="0">
+        <v>142</v>
+      </c>
+      <c r="C18" t="s" s="0">
+        <v>85</v>
+      </c>
+      <c r="D18" t="s" s="0">
         <v>143</v>
       </c>
-      <c r="B18" t="s" s="0">
-        <v>144</v>
-      </c>
-      <c r="C18" t="s" s="0">
-        <v>87</v>
-      </c>
-      <c r="D18" t="s" s="0">
-        <v>145</v>
-      </c>
       <c r="E18" t="s" s="0">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>25</v>
+        <v>264</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>269</v>
+        <v>26</v>
       </c>
       <c r="I18" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J18" t="s" s="0">
-        <v>29</v>
+        <v>266</v>
       </c>
       <c r="K18" t="s" s="0">
-        <v>270</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s" s="0">
+        <v>148</v>
+      </c>
+      <c r="M18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="N18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="O18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="P18" t="s" s="0">
+        <v>27</v>
+      </c>
+      <c r="Q18" t="s" s="0">
+        <v>26</v>
+      </c>
+      <c r="R18" t="s" s="0">
         <v>149</v>
       </c>
-      <c r="M18" t="s" s="0">
-        <v>150</v>
-      </c>
-      <c r="N18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="O18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="P18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="Q18" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="R18" t="s" s="0">
-        <v>28</v>
-      </c>
       <c r="S18" t="s" s="0">
-        <v>151</v>
-      </c>
-      <c r="T18" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s" s="0">
+        <v>158</v>
+      </c>
+      <c r="B19" t="s" s="0">
+        <v>159</v>
+      </c>
+      <c r="C19" t="s" s="0">
         <v>160</v>
       </c>
-      <c r="B19" t="s" s="0">
+      <c r="D19" t="s" s="0">
         <v>161</v>
       </c>
-      <c r="C19" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="D19" t="s" s="0">
-        <v>163</v>
-      </c>
       <c r="E19" t="s" s="0">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>25</v>
+        <v>268</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>273</v>
+        <v>26</v>
       </c>
       <c r="I19" t="s" s="0">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="J19" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="K19" t="s" s="0">
-        <v>29</v>
+        <v>270</v>
       </c>
       <c r="L19" t="s" s="0">
-        <v>274</v>
+        <v>166</v>
       </c>
       <c r="M19" t="s" s="0">
-        <v>168</v>
+        <v>27</v>
       </c>
       <c r="N19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="O19" t="s" s="0">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="P19" t="s" s="0">
-        <v>225</v>
+        <v>27</v>
       </c>
       <c r="Q19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S19" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T19" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s" s="0">
+        <v>167</v>
+      </c>
+      <c r="B20" t="s" s="0">
+        <v>168</v>
+      </c>
+      <c r="C20" t="s" s="0">
         <v>169</v>
       </c>
-      <c r="B20" t="s" s="0">
+      <c r="D20" t="s" s="0">
         <v>170</v>
       </c>
-      <c r="C20" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="D20" t="s" s="0">
-        <v>172</v>
-      </c>
       <c r="E20" t="s" s="0">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="F20" t="s" s="0">
-        <v>25</v>
+        <v>272</v>
       </c>
       <c r="G20" t="s" s="0">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="H20" t="s" s="0">
-        <v>277</v>
+        <v>26</v>
       </c>
       <c r="I20" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J20" t="s" s="0">
-        <v>29</v>
+        <v>218</v>
       </c>
       <c r="K20" t="s" s="0">
-        <v>225</v>
+        <v>274</v>
       </c>
       <c r="L20" t="s" s="0">
-        <v>278</v>
+        <v>175</v>
       </c>
       <c r="M20" t="s" s="0">
-        <v>177</v>
+        <v>26</v>
       </c>
       <c r="N20" t="s" s="0">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="O20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S20" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T20" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s" s="0">
+        <v>176</v>
+      </c>
+      <c r="B21" t="s" s="0">
+        <v>177</v>
+      </c>
+      <c r="C21" t="s" s="0">
+        <v>169</v>
+      </c>
+      <c r="D21" t="s" s="0">
         <v>178</v>
       </c>
-      <c r="B21" t="s" s="0">
-        <v>179</v>
-      </c>
-      <c r="C21" t="s" s="0">
-        <v>171</v>
-      </c>
-      <c r="D21" t="s" s="0">
-        <v>180</v>
-      </c>
       <c r="E21" t="s" s="0">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>25</v>
+        <v>276</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>281</v>
+        <v>182</v>
       </c>
       <c r="I21" t="s" s="0">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="J21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="K21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="L21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="M21" t="s" s="0">
-        <v>29</v>
+        <v>182</v>
       </c>
       <c r="N21" t="s" s="0">
-        <v>184</v>
+        <v>27</v>
       </c>
       <c r="O21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="P21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="Q21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="R21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="S21" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="T21" t="s" s="0">
-        <v>29</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
